--- a/biology/Zoologie/Ariane_de_Boucard/Ariane_de_Boucard.xlsx
+++ b/biology/Zoologie/Ariane_de_Boucard/Ariane_de_Boucard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazilia boucardi
 L’Ariane de Boucard (Amazilia boucardi, aussi Polyerata boucardi) est une espèce de colibris de la sous-famille des Trochilinae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 9,5 cm de longueur. Il possède un plumage essentiellement vert dessus et blanc dessous. Le mâle a la gorge et la poitrine vert bleu vif tandis que celles de la femelle sont blanches bordées de vert pâle.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Ariane de Boucard, endémique du Costa Rica, occupe exclusivement la zone côtière du Pacifique du Golfe de Nicoya au Golfe Duce[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Ariane de Boucard, endémique du Costa Rica, occupe exclusivement la zone côtière du Pacifique du Golfe de Nicoya au Golfe Duce.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente la mangrove et les milieux adjacents.
 </t>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se nourrit principalement du nectar des fleurs du Palétuvier du Pacifique Pelliciera (en) rhizophorae (famille des Tetrameristaceae).
 </t>
